--- a/data/neut_plate_reader_data/HC070021.xlsx
+++ b/data/neut_plate_reader_data/HC070021.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0681834-E827-1141-8A59-4BF01F496AC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="340" yWindow="2720" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F159G" sheetId="5" r:id="rId1"/>
     <sheet name="F193D" sheetId="4" r:id="rId2"/>
     <sheet name="F193F" sheetId="3" r:id="rId3"/>
     <sheet name="WT" sheetId="2" r:id="rId4"/>
+    <sheet name="I192E" sheetId="6" r:id="rId5"/>
+    <sheet name="K189D" sheetId="7" r:id="rId6"/>
+    <sheet name="WT2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -30,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -84,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -108,12 +117,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -175,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +192,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -199,12 +208,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -266,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -290,12 +299,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -357,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +374,280 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -381,7 +663,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="72">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -561,12 +843,48 @@
   </si>
   <si>
     <t>3/20/2020 11:01:32 AM</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:52:25 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 22.9 °C</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:51:29 AM</t>
+  </si>
+  <si>
+    <t>8:50:32 AM</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:50:14 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 22.8 °C</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:49:18 AM</t>
+  </si>
+  <si>
+    <t>8:48:21 AM</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:48:05 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 22.5 °C</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:47:09 AM</t>
+  </si>
+  <si>
+    <t>8:46:07 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,10 +912,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,60 +966,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -730,23 +994,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -795,7 +1062,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,9 +1095,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -863,6 +1147,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1038,14 +1339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1378,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1109,17 +1410,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1127,12 +1428,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1143,7 +1444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1187,7 +1488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1220,7 +1521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1231,7 +1532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1242,7 +1543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1250,12 +1551,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1296,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1337,7 +1638,7 @@
         <v>5507</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1378,7 +1679,7 @@
         <v>8237</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1419,7 +1720,7 @@
         <v>33172</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1460,7 +1761,7 @@
         <v>13824</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1501,7 +1802,7 @@
         <v>13345</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1542,7 +1843,7 @@
         <v>13551</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1583,7 +1884,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1925,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1639,14 +1940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1979,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +1995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1710,17 +2011,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1728,12 +2029,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1744,7 +2045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1755,7 +2056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1766,7 +2067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1777,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1788,7 +2089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1799,7 +2100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1810,7 +2111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +2122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1832,7 +2133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1843,7 +2144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1851,12 +2152,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1897,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1938,7 +2239,7 @@
         <v>8938</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1979,7 +2280,7 @@
         <v>12256</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2020,7 +2321,7 @@
         <v>37639</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2061,7 +2362,7 @@
         <v>13530</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2102,7 +2403,7 @@
         <v>13624</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2143,7 +2444,7 @@
         <v>13489</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2485,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2225,7 +2526,7 @@
         <v>8656</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2240,14 +2541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2263,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2271,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2580,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2287,7 +2588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2303,7 +2604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2311,17 +2612,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2329,12 +2630,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2345,7 +2646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2356,7 +2657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2367,7 +2668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2378,7 +2679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2389,7 +2690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2400,7 +2701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2411,7 +2712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2444,7 +2745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2452,12 +2753,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2498,7 +2799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2539,7 +2840,7 @@
         <v>11416</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2580,7 +2881,7 @@
         <v>15054</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2621,7 +2922,7 @@
         <v>35826</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2662,7 +2963,7 @@
         <v>16156</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2703,7 +3004,7 @@
         <v>16197</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2744,7 +3045,7 @@
         <v>15993</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2785,7 +3086,7 @@
         <v>34809</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2826,7 +3127,7 @@
         <v>10717</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2841,14 +3142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2864,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2872,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2880,7 +3181,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2888,7 +3189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2896,7 +3197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2904,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2912,17 +3213,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2930,12 +3231,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2946,7 +3247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2957,7 +3258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2968,7 +3269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2979,7 +3280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2990,7 +3291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3001,7 +3302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3012,7 +3313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3023,7 +3324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3034,7 +3335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3045,7 +3346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3053,12 +3354,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3099,7 +3400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3140,7 +3441,7 @@
         <v>15211</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3181,7 +3482,7 @@
         <v>19627</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3222,7 +3523,7 @@
         <v>36958</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3263,7 +3564,7 @@
         <v>21841</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3304,7 +3605,7 @@
         <v>21694</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3345,7 +3646,7 @@
         <v>22144</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3386,7 +3687,7 @@
         <v>34191</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3427,12 +3728,1815 @@
         <v>14493</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA625D66-EE84-D347-B791-315F2FB0760E}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>15426</v>
+      </c>
+      <c r="C32">
+        <v>15074</v>
+      </c>
+      <c r="D32">
+        <v>15366</v>
+      </c>
+      <c r="E32">
+        <v>15521</v>
+      </c>
+      <c r="F32">
+        <v>15718</v>
+      </c>
+      <c r="G32">
+        <v>16244</v>
+      </c>
+      <c r="H32">
+        <v>15973</v>
+      </c>
+      <c r="I32">
+        <v>15799</v>
+      </c>
+      <c r="J32">
+        <v>15504</v>
+      </c>
+      <c r="K32">
+        <v>15722</v>
+      </c>
+      <c r="L32">
+        <v>15328</v>
+      </c>
+      <c r="M32">
+        <v>15257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>19387</v>
+      </c>
+      <c r="C33">
+        <v>19285</v>
+      </c>
+      <c r="D33">
+        <v>19675</v>
+      </c>
+      <c r="E33">
+        <v>19429</v>
+      </c>
+      <c r="F33">
+        <v>19786</v>
+      </c>
+      <c r="G33">
+        <v>19816</v>
+      </c>
+      <c r="H33">
+        <v>19746</v>
+      </c>
+      <c r="I33">
+        <v>20010</v>
+      </c>
+      <c r="J33">
+        <v>19901</v>
+      </c>
+      <c r="K33">
+        <v>19798</v>
+      </c>
+      <c r="L33">
+        <v>19440</v>
+      </c>
+      <c r="M33">
+        <v>20263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>39269</v>
+      </c>
+      <c r="C34">
+        <v>37790</v>
+      </c>
+      <c r="D34">
+        <v>37334</v>
+      </c>
+      <c r="E34">
+        <v>38413</v>
+      </c>
+      <c r="F34">
+        <v>38281</v>
+      </c>
+      <c r="G34">
+        <v>38913</v>
+      </c>
+      <c r="H34">
+        <v>38890</v>
+      </c>
+      <c r="I34">
+        <v>40261</v>
+      </c>
+      <c r="J34">
+        <v>38186</v>
+      </c>
+      <c r="K34">
+        <v>37949</v>
+      </c>
+      <c r="L34">
+        <v>38423</v>
+      </c>
+      <c r="M34">
+        <v>36573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38372</v>
+      </c>
+      <c r="C35">
+        <v>38459</v>
+      </c>
+      <c r="D35">
+        <v>37106</v>
+      </c>
+      <c r="E35">
+        <v>35618</v>
+      </c>
+      <c r="F35">
+        <v>36994</v>
+      </c>
+      <c r="G35">
+        <v>33763</v>
+      </c>
+      <c r="H35">
+        <v>28470</v>
+      </c>
+      <c r="I35">
+        <v>22096</v>
+      </c>
+      <c r="J35">
+        <v>19213</v>
+      </c>
+      <c r="K35">
+        <v>19442</v>
+      </c>
+      <c r="L35">
+        <v>20045</v>
+      </c>
+      <c r="M35">
+        <v>21730</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>38891</v>
+      </c>
+      <c r="C36">
+        <v>38345</v>
+      </c>
+      <c r="D36">
+        <v>38399</v>
+      </c>
+      <c r="E36">
+        <v>37368</v>
+      </c>
+      <c r="F36">
+        <v>36631</v>
+      </c>
+      <c r="G36">
+        <v>34160</v>
+      </c>
+      <c r="H36">
+        <v>28290</v>
+      </c>
+      <c r="I36">
+        <v>21492</v>
+      </c>
+      <c r="J36">
+        <v>19172</v>
+      </c>
+      <c r="K36">
+        <v>19068</v>
+      </c>
+      <c r="L36">
+        <v>19862</v>
+      </c>
+      <c r="M36">
+        <v>21558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>36795</v>
+      </c>
+      <c r="C37">
+        <v>38019</v>
+      </c>
+      <c r="D37">
+        <v>36390</v>
+      </c>
+      <c r="E37">
+        <v>37570</v>
+      </c>
+      <c r="F37">
+        <v>35875</v>
+      </c>
+      <c r="G37">
+        <v>34545</v>
+      </c>
+      <c r="H37">
+        <v>28690</v>
+      </c>
+      <c r="I37">
+        <v>21508</v>
+      </c>
+      <c r="J37">
+        <v>19166</v>
+      </c>
+      <c r="K37">
+        <v>19142</v>
+      </c>
+      <c r="L37">
+        <v>20404</v>
+      </c>
+      <c r="M37">
+        <v>21595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>35305</v>
+      </c>
+      <c r="C38">
+        <v>37167</v>
+      </c>
+      <c r="D38">
+        <v>35926</v>
+      </c>
+      <c r="E38">
+        <v>37030</v>
+      </c>
+      <c r="F38">
+        <v>37469</v>
+      </c>
+      <c r="G38">
+        <v>37558</v>
+      </c>
+      <c r="H38">
+        <v>37171</v>
+      </c>
+      <c r="I38">
+        <v>36441</v>
+      </c>
+      <c r="J38">
+        <v>36144</v>
+      </c>
+      <c r="K38">
+        <v>34131</v>
+      </c>
+      <c r="L38">
+        <v>32887</v>
+      </c>
+      <c r="M38">
+        <v>34771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>14081</v>
+      </c>
+      <c r="C39">
+        <v>14275</v>
+      </c>
+      <c r="D39">
+        <v>14298</v>
+      </c>
+      <c r="E39">
+        <v>14520</v>
+      </c>
+      <c r="F39">
+        <v>14592</v>
+      </c>
+      <c r="G39">
+        <v>14769</v>
+      </c>
+      <c r="H39">
+        <v>14879</v>
+      </c>
+      <c r="I39">
+        <v>14657</v>
+      </c>
+      <c r="J39">
+        <v>14591</v>
+      </c>
+      <c r="K39">
+        <v>14821</v>
+      </c>
+      <c r="L39">
+        <v>14470</v>
+      </c>
+      <c r="M39">
+        <v>14557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F9B878-57CD-4840-B426-36348FF3DE6D}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>9627</v>
+      </c>
+      <c r="C32">
+        <v>9943</v>
+      </c>
+      <c r="D32">
+        <v>10070</v>
+      </c>
+      <c r="E32">
+        <v>10188</v>
+      </c>
+      <c r="F32">
+        <v>10069</v>
+      </c>
+      <c r="G32">
+        <v>10308</v>
+      </c>
+      <c r="H32">
+        <v>10241</v>
+      </c>
+      <c r="I32">
+        <v>10193</v>
+      </c>
+      <c r="J32">
+        <v>10315</v>
+      </c>
+      <c r="K32">
+        <v>9985</v>
+      </c>
+      <c r="L32">
+        <v>9832</v>
+      </c>
+      <c r="M32">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>12462</v>
+      </c>
+      <c r="C33">
+        <v>12518</v>
+      </c>
+      <c r="D33">
+        <v>12448</v>
+      </c>
+      <c r="E33">
+        <v>12456</v>
+      </c>
+      <c r="F33">
+        <v>12834</v>
+      </c>
+      <c r="G33">
+        <v>12620</v>
+      </c>
+      <c r="H33">
+        <v>12657</v>
+      </c>
+      <c r="I33">
+        <v>12526</v>
+      </c>
+      <c r="J33">
+        <v>12532</v>
+      </c>
+      <c r="K33">
+        <v>12477</v>
+      </c>
+      <c r="L33">
+        <v>12359</v>
+      </c>
+      <c r="M33">
+        <v>12554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>31101</v>
+      </c>
+      <c r="C34">
+        <v>32149</v>
+      </c>
+      <c r="D34">
+        <v>29940</v>
+      </c>
+      <c r="E34">
+        <v>29274</v>
+      </c>
+      <c r="F34">
+        <v>31497</v>
+      </c>
+      <c r="G34">
+        <v>30987</v>
+      </c>
+      <c r="H34">
+        <v>32082</v>
+      </c>
+      <c r="I34">
+        <v>34031</v>
+      </c>
+      <c r="J34">
+        <v>31055</v>
+      </c>
+      <c r="K34">
+        <v>31680</v>
+      </c>
+      <c r="L34">
+        <v>31034</v>
+      </c>
+      <c r="M34">
+        <v>32878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>34245</v>
+      </c>
+      <c r="C35">
+        <v>32550</v>
+      </c>
+      <c r="D35">
+        <v>33878</v>
+      </c>
+      <c r="E35">
+        <v>32504</v>
+      </c>
+      <c r="F35">
+        <v>31154</v>
+      </c>
+      <c r="G35">
+        <v>27298</v>
+      </c>
+      <c r="H35">
+        <v>20798</v>
+      </c>
+      <c r="I35">
+        <v>14626</v>
+      </c>
+      <c r="J35">
+        <v>12193</v>
+      </c>
+      <c r="K35">
+        <v>12247</v>
+      </c>
+      <c r="L35">
+        <v>12604</v>
+      </c>
+      <c r="M35">
+        <v>13675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>31947</v>
+      </c>
+      <c r="C36">
+        <v>31860</v>
+      </c>
+      <c r="D36">
+        <v>32181</v>
+      </c>
+      <c r="E36">
+        <v>31920</v>
+      </c>
+      <c r="F36">
+        <v>30920</v>
+      </c>
+      <c r="G36">
+        <v>27316</v>
+      </c>
+      <c r="H36">
+        <v>20599</v>
+      </c>
+      <c r="I36">
+        <v>14282</v>
+      </c>
+      <c r="J36">
+        <v>12213</v>
+      </c>
+      <c r="K36">
+        <v>12211</v>
+      </c>
+      <c r="L36">
+        <v>12528</v>
+      </c>
+      <c r="M36">
+        <v>13673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>31482</v>
+      </c>
+      <c r="C37">
+        <v>31052</v>
+      </c>
+      <c r="D37">
+        <v>31510</v>
+      </c>
+      <c r="E37">
+        <v>31385</v>
+      </c>
+      <c r="F37">
+        <v>31366</v>
+      </c>
+      <c r="G37">
+        <v>27165</v>
+      </c>
+      <c r="H37">
+        <v>20909</v>
+      </c>
+      <c r="I37">
+        <v>14277</v>
+      </c>
+      <c r="J37">
+        <v>11968</v>
+      </c>
+      <c r="K37">
+        <v>11990</v>
+      </c>
+      <c r="L37">
+        <v>12399</v>
+      </c>
+      <c r="M37">
+        <v>13660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>30823</v>
+      </c>
+      <c r="C38">
+        <v>29236</v>
+      </c>
+      <c r="D38">
+        <v>29512</v>
+      </c>
+      <c r="E38">
+        <v>29290</v>
+      </c>
+      <c r="F38">
+        <v>31817</v>
+      </c>
+      <c r="G38">
+        <v>32016</v>
+      </c>
+      <c r="H38">
+        <v>31470</v>
+      </c>
+      <c r="I38">
+        <v>31359</v>
+      </c>
+      <c r="J38">
+        <v>30866</v>
+      </c>
+      <c r="K38">
+        <v>30661</v>
+      </c>
+      <c r="L38">
+        <v>27827</v>
+      </c>
+      <c r="M38">
+        <v>28853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>9036</v>
+      </c>
+      <c r="C39">
+        <v>9148</v>
+      </c>
+      <c r="D39">
+        <v>9168</v>
+      </c>
+      <c r="E39">
+        <v>9155</v>
+      </c>
+      <c r="F39">
+        <v>9176</v>
+      </c>
+      <c r="G39">
+        <v>9349</v>
+      </c>
+      <c r="H39">
+        <v>9186</v>
+      </c>
+      <c r="I39">
+        <v>9286</v>
+      </c>
+      <c r="J39">
+        <v>9131</v>
+      </c>
+      <c r="K39">
+        <v>9240</v>
+      </c>
+      <c r="L39">
+        <v>9188</v>
+      </c>
+      <c r="M39">
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6A7D1E-F8D5-4C49-8E2D-D51DB3A61FAC}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>12559</v>
+      </c>
+      <c r="C32">
+        <v>13039</v>
+      </c>
+      <c r="D32">
+        <v>13086</v>
+      </c>
+      <c r="E32">
+        <v>13273</v>
+      </c>
+      <c r="F32">
+        <v>13299</v>
+      </c>
+      <c r="G32">
+        <v>13420</v>
+      </c>
+      <c r="H32">
+        <v>13502</v>
+      </c>
+      <c r="I32">
+        <v>13306</v>
+      </c>
+      <c r="J32">
+        <v>13610</v>
+      </c>
+      <c r="K32">
+        <v>13171</v>
+      </c>
+      <c r="L32">
+        <v>13019</v>
+      </c>
+      <c r="M32">
+        <v>12702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>15972</v>
+      </c>
+      <c r="C33">
+        <v>15972</v>
+      </c>
+      <c r="D33">
+        <v>15933</v>
+      </c>
+      <c r="E33">
+        <v>16092</v>
+      </c>
+      <c r="F33">
+        <v>16612</v>
+      </c>
+      <c r="G33">
+        <v>16258</v>
+      </c>
+      <c r="H33">
+        <v>16191</v>
+      </c>
+      <c r="I33">
+        <v>16204</v>
+      </c>
+      <c r="J33">
+        <v>16124</v>
+      </c>
+      <c r="K33">
+        <v>15928</v>
+      </c>
+      <c r="L33">
+        <v>15940</v>
+      </c>
+      <c r="M33">
+        <v>16064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>34538</v>
+      </c>
+      <c r="C34">
+        <v>34628</v>
+      </c>
+      <c r="D34">
+        <v>34473</v>
+      </c>
+      <c r="E34">
+        <v>33360</v>
+      </c>
+      <c r="F34">
+        <v>34091</v>
+      </c>
+      <c r="G34">
+        <v>34253</v>
+      </c>
+      <c r="H34">
+        <v>35268</v>
+      </c>
+      <c r="I34">
+        <v>35764</v>
+      </c>
+      <c r="J34">
+        <v>34431</v>
+      </c>
+      <c r="K34">
+        <v>32347</v>
+      </c>
+      <c r="L34">
+        <v>33162</v>
+      </c>
+      <c r="M34">
+        <v>32923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>34216</v>
+      </c>
+      <c r="C35">
+        <v>32420</v>
+      </c>
+      <c r="D35">
+        <v>33350</v>
+      </c>
+      <c r="E35">
+        <v>32760</v>
+      </c>
+      <c r="F35">
+        <v>31938</v>
+      </c>
+      <c r="G35">
+        <v>28601</v>
+      </c>
+      <c r="H35">
+        <v>21912</v>
+      </c>
+      <c r="I35">
+        <v>16560</v>
+      </c>
+      <c r="J35">
+        <v>15329</v>
+      </c>
+      <c r="K35">
+        <v>15615</v>
+      </c>
+      <c r="L35">
+        <v>16112</v>
+      </c>
+      <c r="M35">
+        <v>17476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>33121</v>
+      </c>
+      <c r="C36">
+        <v>32859</v>
+      </c>
+      <c r="D36">
+        <v>32852</v>
+      </c>
+      <c r="E36">
+        <v>31883</v>
+      </c>
+      <c r="F36">
+        <v>29355</v>
+      </c>
+      <c r="G36">
+        <v>26846</v>
+      </c>
+      <c r="H36">
+        <v>20466</v>
+      </c>
+      <c r="I36">
+        <v>15774</v>
+      </c>
+      <c r="J36">
+        <v>15351</v>
+      </c>
+      <c r="K36">
+        <v>15543</v>
+      </c>
+      <c r="L36">
+        <v>15916</v>
+      </c>
+      <c r="M36">
+        <v>17451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>32281</v>
+      </c>
+      <c r="C37">
+        <v>32194</v>
+      </c>
+      <c r="D37">
+        <v>30947</v>
+      </c>
+      <c r="E37">
+        <v>29622</v>
+      </c>
+      <c r="F37">
+        <v>28345</v>
+      </c>
+      <c r="G37">
+        <v>27736</v>
+      </c>
+      <c r="H37">
+        <v>21454</v>
+      </c>
+      <c r="I37">
+        <v>15652</v>
+      </c>
+      <c r="J37">
+        <v>15232</v>
+      </c>
+      <c r="K37">
+        <v>15109</v>
+      </c>
+      <c r="L37">
+        <v>15953</v>
+      </c>
+      <c r="M37">
+        <v>17390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>30960</v>
+      </c>
+      <c r="C38">
+        <v>31771</v>
+      </c>
+      <c r="D38">
+        <v>31267</v>
+      </c>
+      <c r="E38">
+        <v>31243</v>
+      </c>
+      <c r="F38">
+        <v>32549</v>
+      </c>
+      <c r="G38">
+        <v>32388</v>
+      </c>
+      <c r="H38">
+        <v>31844</v>
+      </c>
+      <c r="I38">
+        <v>30995</v>
+      </c>
+      <c r="J38">
+        <v>31436</v>
+      </c>
+      <c r="K38">
+        <v>30795</v>
+      </c>
+      <c r="L38">
+        <v>29353</v>
+      </c>
+      <c r="M38">
+        <v>30336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>11782</v>
+      </c>
+      <c r="C39">
+        <v>11778</v>
+      </c>
+      <c r="D39">
+        <v>11967</v>
+      </c>
+      <c r="E39">
+        <v>11766</v>
+      </c>
+      <c r="F39">
+        <v>11877</v>
+      </c>
+      <c r="G39">
+        <v>12049</v>
+      </c>
+      <c r="H39">
+        <v>11994</v>
+      </c>
+      <c r="I39">
+        <v>11889</v>
+      </c>
+      <c r="J39">
+        <v>11913</v>
+      </c>
+      <c r="K39">
+        <v>11872</v>
+      </c>
+      <c r="L39">
+        <v>11749</v>
+      </c>
+      <c r="M39">
+        <v>11721</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/neut_plate_reader_data/HC070021.xlsx
+++ b/data/neut_plate_reader_data/HC070021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0681834-E827-1141-8A59-4BF01F496AC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DBE739-EA83-FF4C-A813-227FFB698468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="2720" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="3860" windowWidth="27800" windowHeight="12580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F159G" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="I192E" sheetId="6" r:id="rId5"/>
     <sheet name="K189D" sheetId="7" r:id="rId6"/>
     <sheet name="WT2" sheetId="8" r:id="rId7"/>
+    <sheet name="Feb K189D" sheetId="9" r:id="rId8"/>
+    <sheet name="Feb K189N" sheetId="10" r:id="rId9"/>
+    <sheet name="Feb WT" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -102,6 +105,97 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -662,8 +756,190 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="84">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -879,13 +1155,49 @@
   </si>
   <si>
     <t>8:46:07 AM</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:20:40 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 27.3 °C</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:19:42 AM</t>
+  </si>
+  <si>
+    <t>10:18:44 AM</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:18:23 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 27.1 °C</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:17:25 AM</t>
+  </si>
+  <si>
+    <t>10:16:26 AM</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:16:01 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 27.2 °C</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:15:04 AM</t>
+  </si>
+  <si>
+    <t>10:14:02 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +1225,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1939,6 +2258,607 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9984C20-1057-9540-BF98-1B6D0F40E969}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>15363</v>
+      </c>
+      <c r="C32">
+        <v>15361</v>
+      </c>
+      <c r="D32">
+        <v>16021</v>
+      </c>
+      <c r="E32">
+        <v>16141</v>
+      </c>
+      <c r="F32">
+        <v>16274</v>
+      </c>
+      <c r="G32">
+        <v>16172</v>
+      </c>
+      <c r="H32">
+        <v>16050</v>
+      </c>
+      <c r="I32">
+        <v>15594</v>
+      </c>
+      <c r="J32">
+        <v>16298</v>
+      </c>
+      <c r="K32">
+        <v>15605</v>
+      </c>
+      <c r="L32">
+        <v>15648</v>
+      </c>
+      <c r="M32">
+        <v>15465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>20468</v>
+      </c>
+      <c r="C33">
+        <v>20447</v>
+      </c>
+      <c r="D33">
+        <v>20478</v>
+      </c>
+      <c r="E33">
+        <v>20813</v>
+      </c>
+      <c r="F33">
+        <v>20998</v>
+      </c>
+      <c r="G33">
+        <v>21176</v>
+      </c>
+      <c r="H33">
+        <v>20653</v>
+      </c>
+      <c r="I33">
+        <v>20915</v>
+      </c>
+      <c r="J33">
+        <v>20898</v>
+      </c>
+      <c r="K33">
+        <v>20782</v>
+      </c>
+      <c r="L33">
+        <v>20010</v>
+      </c>
+      <c r="M33">
+        <v>20644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>38835</v>
+      </c>
+      <c r="C34">
+        <v>38460</v>
+      </c>
+      <c r="D34">
+        <v>37243</v>
+      </c>
+      <c r="E34">
+        <v>37097</v>
+      </c>
+      <c r="F34">
+        <v>38276</v>
+      </c>
+      <c r="G34">
+        <v>38677</v>
+      </c>
+      <c r="H34">
+        <v>38470</v>
+      </c>
+      <c r="I34">
+        <v>36256</v>
+      </c>
+      <c r="J34">
+        <v>36864</v>
+      </c>
+      <c r="K34">
+        <v>38446</v>
+      </c>
+      <c r="L34">
+        <v>37709</v>
+      </c>
+      <c r="M34">
+        <v>39044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>36176</v>
+      </c>
+      <c r="C35">
+        <v>34981</v>
+      </c>
+      <c r="D35">
+        <v>34908</v>
+      </c>
+      <c r="E35">
+        <v>33314</v>
+      </c>
+      <c r="F35">
+        <v>34188</v>
+      </c>
+      <c r="G35">
+        <v>30530</v>
+      </c>
+      <c r="H35">
+        <v>24785</v>
+      </c>
+      <c r="I35">
+        <v>21070</v>
+      </c>
+      <c r="J35">
+        <v>19809</v>
+      </c>
+      <c r="K35">
+        <v>19576</v>
+      </c>
+      <c r="L35">
+        <v>20501</v>
+      </c>
+      <c r="M35">
+        <v>21896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>33348</v>
+      </c>
+      <c r="C36">
+        <v>30509</v>
+      </c>
+      <c r="D36">
+        <v>29605</v>
+      </c>
+      <c r="E36">
+        <v>28876</v>
+      </c>
+      <c r="F36">
+        <v>29079</v>
+      </c>
+      <c r="G36">
+        <v>27212</v>
+      </c>
+      <c r="H36">
+        <v>23839</v>
+      </c>
+      <c r="I36">
+        <v>20175</v>
+      </c>
+      <c r="J36">
+        <v>19671</v>
+      </c>
+      <c r="K36">
+        <v>19414</v>
+      </c>
+      <c r="L36">
+        <v>20061</v>
+      </c>
+      <c r="M36">
+        <v>21383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>35173</v>
+      </c>
+      <c r="C37">
+        <v>33833</v>
+      </c>
+      <c r="D37">
+        <v>34300</v>
+      </c>
+      <c r="E37">
+        <v>33034</v>
+      </c>
+      <c r="F37">
+        <v>30457</v>
+      </c>
+      <c r="G37">
+        <v>28494</v>
+      </c>
+      <c r="H37">
+        <v>24498</v>
+      </c>
+      <c r="I37">
+        <v>20293</v>
+      </c>
+      <c r="J37">
+        <v>19182</v>
+      </c>
+      <c r="K37">
+        <v>19432</v>
+      </c>
+      <c r="L37">
+        <v>20173</v>
+      </c>
+      <c r="M37">
+        <v>21629</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>35887</v>
+      </c>
+      <c r="C38">
+        <v>34709</v>
+      </c>
+      <c r="D38">
+        <v>36298</v>
+      </c>
+      <c r="E38">
+        <v>36191</v>
+      </c>
+      <c r="F38">
+        <v>36023</v>
+      </c>
+      <c r="G38">
+        <v>36466</v>
+      </c>
+      <c r="H38">
+        <v>36951</v>
+      </c>
+      <c r="I38">
+        <v>36693</v>
+      </c>
+      <c r="J38">
+        <v>35847</v>
+      </c>
+      <c r="K38">
+        <v>35965</v>
+      </c>
+      <c r="L38">
+        <v>34849</v>
+      </c>
+      <c r="M38">
+        <v>36834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>14188</v>
+      </c>
+      <c r="C39">
+        <v>14443</v>
+      </c>
+      <c r="D39">
+        <v>14524</v>
+      </c>
+      <c r="E39">
+        <v>14946</v>
+      </c>
+      <c r="F39">
+        <v>14954</v>
+      </c>
+      <c r="G39">
+        <v>15129</v>
+      </c>
+      <c r="H39">
+        <v>15157</v>
+      </c>
+      <c r="I39">
+        <v>14900</v>
+      </c>
+      <c r="J39">
+        <v>15042</v>
+      </c>
+      <c r="K39">
+        <v>14935</v>
+      </c>
+      <c r="L39">
+        <v>14474</v>
+      </c>
+      <c r="M39">
+        <v>14440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
@@ -3746,7 +4666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA625D66-EE84-D347-B791-315F2FB0760E}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5543,4 +6463,1206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AC94B2-AA33-744D-A90C-28A6DF8F3130}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>21776</v>
+      </c>
+      <c r="C32">
+        <v>22674</v>
+      </c>
+      <c r="D32">
+        <v>22986</v>
+      </c>
+      <c r="E32">
+        <v>23297</v>
+      </c>
+      <c r="F32">
+        <v>23368</v>
+      </c>
+      <c r="G32">
+        <v>23124</v>
+      </c>
+      <c r="H32">
+        <v>23420</v>
+      </c>
+      <c r="I32">
+        <v>23270</v>
+      </c>
+      <c r="J32">
+        <v>23231</v>
+      </c>
+      <c r="K32">
+        <v>22955</v>
+      </c>
+      <c r="L32">
+        <v>22569</v>
+      </c>
+      <c r="M32">
+        <v>22164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>26948</v>
+      </c>
+      <c r="C33">
+        <v>26513</v>
+      </c>
+      <c r="D33">
+        <v>27379</v>
+      </c>
+      <c r="E33">
+        <v>27433</v>
+      </c>
+      <c r="F33">
+        <v>27722</v>
+      </c>
+      <c r="G33">
+        <v>27666</v>
+      </c>
+      <c r="H33">
+        <v>27589</v>
+      </c>
+      <c r="I33">
+        <v>27873</v>
+      </c>
+      <c r="J33">
+        <v>27543</v>
+      </c>
+      <c r="K33">
+        <v>26885</v>
+      </c>
+      <c r="L33">
+        <v>26777</v>
+      </c>
+      <c r="M33">
+        <v>27342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>39417</v>
+      </c>
+      <c r="C34">
+        <v>39762</v>
+      </c>
+      <c r="D34">
+        <v>39041</v>
+      </c>
+      <c r="E34">
+        <v>39251</v>
+      </c>
+      <c r="F34">
+        <v>39318</v>
+      </c>
+      <c r="G34">
+        <v>40301</v>
+      </c>
+      <c r="H34">
+        <v>39282</v>
+      </c>
+      <c r="I34">
+        <v>40343</v>
+      </c>
+      <c r="J34">
+        <v>40266</v>
+      </c>
+      <c r="K34">
+        <v>39403</v>
+      </c>
+      <c r="L34">
+        <v>39943</v>
+      </c>
+      <c r="M34">
+        <v>39936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>39376</v>
+      </c>
+      <c r="C35">
+        <v>38635</v>
+      </c>
+      <c r="D35">
+        <v>37773</v>
+      </c>
+      <c r="E35">
+        <v>37808</v>
+      </c>
+      <c r="F35">
+        <v>37876</v>
+      </c>
+      <c r="G35">
+        <v>34898</v>
+      </c>
+      <c r="H35">
+        <v>30380</v>
+      </c>
+      <c r="I35">
+        <v>27957</v>
+      </c>
+      <c r="J35">
+        <v>26292</v>
+      </c>
+      <c r="K35">
+        <v>26038</v>
+      </c>
+      <c r="L35">
+        <v>27115</v>
+      </c>
+      <c r="M35">
+        <v>29526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>37913</v>
+      </c>
+      <c r="C36">
+        <v>39031</v>
+      </c>
+      <c r="D36">
+        <v>38452</v>
+      </c>
+      <c r="E36">
+        <v>38337</v>
+      </c>
+      <c r="F36">
+        <v>36950</v>
+      </c>
+      <c r="G36">
+        <v>33371</v>
+      </c>
+      <c r="H36">
+        <v>30732</v>
+      </c>
+      <c r="I36">
+        <v>27540</v>
+      </c>
+      <c r="J36">
+        <v>25926</v>
+      </c>
+      <c r="K36">
+        <v>26283</v>
+      </c>
+      <c r="L36">
+        <v>26986</v>
+      </c>
+      <c r="M36">
+        <v>29409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>37105</v>
+      </c>
+      <c r="C37">
+        <v>39534</v>
+      </c>
+      <c r="D37">
+        <v>39154</v>
+      </c>
+      <c r="E37">
+        <v>39213</v>
+      </c>
+      <c r="F37">
+        <v>36815</v>
+      </c>
+      <c r="G37">
+        <v>35426</v>
+      </c>
+      <c r="H37">
+        <v>31488</v>
+      </c>
+      <c r="I37">
+        <v>27212</v>
+      </c>
+      <c r="J37">
+        <v>25584</v>
+      </c>
+      <c r="K37">
+        <v>25837</v>
+      </c>
+      <c r="L37">
+        <v>26962</v>
+      </c>
+      <c r="M37">
+        <v>29067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>36618</v>
+      </c>
+      <c r="C38">
+        <v>38505</v>
+      </c>
+      <c r="D38">
+        <v>38322</v>
+      </c>
+      <c r="E38">
+        <v>39129</v>
+      </c>
+      <c r="F38">
+        <v>40586</v>
+      </c>
+      <c r="G38">
+        <v>39816</v>
+      </c>
+      <c r="H38">
+        <v>39564</v>
+      </c>
+      <c r="I38">
+        <v>40136</v>
+      </c>
+      <c r="J38">
+        <v>40292</v>
+      </c>
+      <c r="K38">
+        <v>39219</v>
+      </c>
+      <c r="L38">
+        <v>39207</v>
+      </c>
+      <c r="M38">
+        <v>38123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>20223</v>
+      </c>
+      <c r="C39">
+        <v>20506</v>
+      </c>
+      <c r="D39">
+        <v>20917</v>
+      </c>
+      <c r="E39">
+        <v>21178</v>
+      </c>
+      <c r="F39">
+        <v>22140</v>
+      </c>
+      <c r="G39">
+        <v>20894</v>
+      </c>
+      <c r="H39">
+        <v>21741</v>
+      </c>
+      <c r="I39">
+        <v>21693</v>
+      </c>
+      <c r="J39">
+        <v>21341</v>
+      </c>
+      <c r="K39">
+        <v>20994</v>
+      </c>
+      <c r="L39">
+        <v>21037</v>
+      </c>
+      <c r="M39">
+        <v>20435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2A6637-A77D-2C40-98BF-F59621A6989B}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>22872</v>
+      </c>
+      <c r="C32">
+        <v>23176</v>
+      </c>
+      <c r="D32">
+        <v>22870</v>
+      </c>
+      <c r="E32">
+        <v>23284</v>
+      </c>
+      <c r="F32">
+        <v>24257</v>
+      </c>
+      <c r="G32">
+        <v>24068</v>
+      </c>
+      <c r="H32">
+        <v>23507</v>
+      </c>
+      <c r="I32">
+        <v>23446</v>
+      </c>
+      <c r="J32">
+        <v>23666</v>
+      </c>
+      <c r="K32">
+        <v>23583</v>
+      </c>
+      <c r="L32">
+        <v>23588</v>
+      </c>
+      <c r="M32">
+        <v>23183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>28244</v>
+      </c>
+      <c r="C33">
+        <v>28201</v>
+      </c>
+      <c r="D33">
+        <v>28310</v>
+      </c>
+      <c r="E33">
+        <v>28083</v>
+      </c>
+      <c r="F33">
+        <v>28708</v>
+      </c>
+      <c r="G33">
+        <v>28817</v>
+      </c>
+      <c r="H33">
+        <v>28478</v>
+      </c>
+      <c r="I33">
+        <v>28195</v>
+      </c>
+      <c r="J33">
+        <v>28472</v>
+      </c>
+      <c r="K33">
+        <v>28429</v>
+      </c>
+      <c r="L33">
+        <v>28380</v>
+      </c>
+      <c r="M33">
+        <v>28563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>35992</v>
+      </c>
+      <c r="C34">
+        <v>37259</v>
+      </c>
+      <c r="D34">
+        <v>37125</v>
+      </c>
+      <c r="E34">
+        <v>37995</v>
+      </c>
+      <c r="F34">
+        <v>39051</v>
+      </c>
+      <c r="G34">
+        <v>39892</v>
+      </c>
+      <c r="H34">
+        <v>38807</v>
+      </c>
+      <c r="I34">
+        <v>38856</v>
+      </c>
+      <c r="J34">
+        <v>37328</v>
+      </c>
+      <c r="K34">
+        <v>38303</v>
+      </c>
+      <c r="L34">
+        <v>39113</v>
+      </c>
+      <c r="M34">
+        <v>38496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>37451</v>
+      </c>
+      <c r="C35">
+        <v>36331</v>
+      </c>
+      <c r="D35">
+        <v>35773</v>
+      </c>
+      <c r="E35">
+        <v>34379</v>
+      </c>
+      <c r="F35">
+        <v>34500</v>
+      </c>
+      <c r="G35">
+        <v>34040</v>
+      </c>
+      <c r="H35">
+        <v>30780</v>
+      </c>
+      <c r="I35">
+        <v>27401</v>
+      </c>
+      <c r="J35">
+        <v>26550</v>
+      </c>
+      <c r="K35">
+        <v>27697</v>
+      </c>
+      <c r="L35">
+        <v>27726</v>
+      </c>
+      <c r="M35">
+        <v>30335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>37292</v>
+      </c>
+      <c r="C36">
+        <v>37559</v>
+      </c>
+      <c r="D36">
+        <v>37155</v>
+      </c>
+      <c r="E36">
+        <v>36166</v>
+      </c>
+      <c r="F36">
+        <v>35392</v>
+      </c>
+      <c r="G36">
+        <v>33681</v>
+      </c>
+      <c r="H36">
+        <v>29934</v>
+      </c>
+      <c r="I36">
+        <v>27431</v>
+      </c>
+      <c r="J36">
+        <v>27052</v>
+      </c>
+      <c r="K36">
+        <v>27075</v>
+      </c>
+      <c r="L36">
+        <v>28607</v>
+      </c>
+      <c r="M36">
+        <v>30112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>36655</v>
+      </c>
+      <c r="C37">
+        <v>37192</v>
+      </c>
+      <c r="D37">
+        <v>36538</v>
+      </c>
+      <c r="E37">
+        <v>35260</v>
+      </c>
+      <c r="F37">
+        <v>34698</v>
+      </c>
+      <c r="G37">
+        <v>32293</v>
+      </c>
+      <c r="H37">
+        <v>30271</v>
+      </c>
+      <c r="I37">
+        <v>27754</v>
+      </c>
+      <c r="J37">
+        <v>26497</v>
+      </c>
+      <c r="K37">
+        <v>26833</v>
+      </c>
+      <c r="L37">
+        <v>28764</v>
+      </c>
+      <c r="M37">
+        <v>30072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>35229</v>
+      </c>
+      <c r="C38">
+        <v>35614</v>
+      </c>
+      <c r="D38">
+        <v>37236</v>
+      </c>
+      <c r="E38">
+        <v>37429</v>
+      </c>
+      <c r="F38">
+        <v>37587</v>
+      </c>
+      <c r="G38">
+        <v>37064</v>
+      </c>
+      <c r="H38">
+        <v>37219</v>
+      </c>
+      <c r="I38">
+        <v>37102</v>
+      </c>
+      <c r="J38">
+        <v>36720</v>
+      </c>
+      <c r="K38">
+        <v>36818</v>
+      </c>
+      <c r="L38">
+        <v>35861</v>
+      </c>
+      <c r="M38">
+        <v>36559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>21260</v>
+      </c>
+      <c r="C39">
+        <v>22911</v>
+      </c>
+      <c r="D39">
+        <v>21695</v>
+      </c>
+      <c r="E39">
+        <v>21971</v>
+      </c>
+      <c r="F39">
+        <v>22302</v>
+      </c>
+      <c r="G39">
+        <v>22373</v>
+      </c>
+      <c r="H39">
+        <v>22437</v>
+      </c>
+      <c r="I39">
+        <v>22260</v>
+      </c>
+      <c r="J39">
+        <v>22225</v>
+      </c>
+      <c r="K39">
+        <v>22297</v>
+      </c>
+      <c r="L39">
+        <v>21844</v>
+      </c>
+      <c r="M39">
+        <v>21773</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>